--- a/gemini8048/bin/87KLR951.xlsx
+++ b/gemini8048/bin/87KLR951.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mike/coding_projects/944/DME_sim/gemini8048/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C4B319-2826-3241-9E86-2C3AF96D1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB6A57E-F04A-294E-B25F-0D97C7246EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20720" yWindow="8020" windowWidth="54880" windowHeight="32140" activeTab="3" xr2:uid="{2E4973DB-796B-C042-9075-3CEAD2931264}"/>
+    <workbookView xWindow="4140" yWindow="6540" windowWidth="54880" windowHeight="32140" activeTab="4" xr2:uid="{2E4973DB-796B-C042-9075-3CEAD2931264}"/>
   </bookViews>
   <sheets>
     <sheet name="ASM" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7977" uniqueCount="4252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7993" uniqueCount="4268">
   <si>
     <t>// Start the timer. This resets the internal 32-cycle counter. As a result, the</t>
   </si>
@@ -12883,6 +12883,54 @@
   </si>
   <si>
     <t>//p2.4 = conn4</t>
+  </si>
+  <si>
+    <t>Xcode</t>
+  </si>
+  <si>
+    <t>asm48</t>
+  </si>
+  <si>
+    <t>homebrew (brew)</t>
+  </si>
+  <si>
+    <t>pip3 install pandas</t>
+  </si>
+  <si>
+    <t>pip3 install openpyxl</t>
+  </si>
+  <si>
+    <t>macos app rosetta</t>
+  </si>
+  <si>
+    <t>git clone iverilog</t>
+  </si>
+  <si>
+    <t>brew insatell autoconf</t>
+  </si>
+  <si>
+    <t>brew install gperf</t>
+  </si>
+  <si>
+    <t>brew ibstal flex</t>
+  </si>
+  <si>
+    <t>brew istall bison. -make sure to update path as default ibson is too old</t>
+  </si>
+  <si>
+    <t>brew instrall --cask xquartz</t>
+  </si>
+  <si>
+    <t>brew install meson ninja gtk+3 tcl-tk bzip2 pkg-config glib gtk4</t>
+  </si>
+  <si>
+    <t>gtk-mac-intgegration</t>
+  </si>
+  <si>
+    <t>json-glib</t>
+  </si>
+  <si>
+    <t>gobject-introspection</t>
   </si>
 </sst>
 </file>
@@ -13394,8 +13442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D65C7D8-AEC9-FD49-9367-33D84BF40389}">
   <dimension ref="A1:AG1461"/>
   <sheetViews>
-    <sheetView topLeftCell="A679" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F694" sqref="F694"/>
+    <sheetView topLeftCell="A277" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297:XFD297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40767,7 +40815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE33469-186F-C040-A637-D72133372D35}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -42832,10 +42880,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC1D72-75E3-264F-8C4A-006FC7D10ADC}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42860,6 +42908,86 @@
         <v>3143</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4253</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2DA92A5B-1103-7E44-8C33-0E122A8C4F84}"/>
